--- a/REGULAR/RE-ENCODE/PEREY, AIRENE.xlsx
+++ b/REGULAR/RE-ENCODE/PEREY, AIRENE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>2/13,14/2023</t>
+  </si>
+  <si>
+    <t>4/28, 5/2,3/2023</t>
+  </si>
+  <si>
+    <t>4/25-27/2023</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1316,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A86" activePane="bottomLeft"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1475,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>124.224</v>
+        <v>125.474</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1479,7 +1485,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>108.042</v>
+        <v>103.292</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3409,7 +3415,9 @@
       <c r="A97" s="40">
         <v>44986</v>
       </c>
-      <c r="B97" s="20"/>
+      <c r="B97" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C97" s="13">
         <v>1.25</v>
       </c>
@@ -3420,28 +3428,40 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H97" s="39"/>
+      <c r="H97" s="39">
+        <v>3</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45017</v>
       </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
+      <c r="B98" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="39"/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H98" s="39">
+        <v>3</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
+      <c r="K98" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">

--- a/REGULAR/RE-ENCODE/PEREY, AIRENE.xlsx
+++ b/REGULAR/RE-ENCODE/PEREY, AIRENE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>4/25-27/2023</t>
+  </si>
+  <si>
+    <t>5/4,5/2023</t>
   </si>
 </sst>
 </file>
@@ -1314,9 +1317,9 @@
   <dimension ref="A2:K148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A86" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A95" activePane="bottomLeft"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1488,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>103.292</v>
+        <v>101.292</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3467,7 +3470,9 @@
       <c r="A99" s="40">
         <v>45047</v>
       </c>
-      <c r="B99" s="20"/>
+      <c r="B99" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
@@ -3476,10 +3481,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H99" s="39"/>
+      <c r="H99" s="39">
+        <v>2</v>
+      </c>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
+      <c r="K99" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
